--- a/observations/orbit_plans/mtp065/nomad_mtp065_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp065/nomad_mtp065_plan_generic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp065\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8591E3D8-90C1-4C21-A876-1C2ED8CED5DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F83962-247C-49B1-85AD-A37F7591DB8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="576">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1777,12 +1777,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1797,10 +1803,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2105,16 +2112,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +2162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2172,7 +2179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2204,7 +2211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2218,7 +2225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2250,7 +2257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2267,7 +2274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2299,21 +2306,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" t="s">
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2334,7 +2344,7 @@
       </c>
       <c r="N9"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>14</v>
       </c>
@@ -2346,7 +2356,7 @@
       </c>
       <c r="N10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2360,7 +2370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2392,7 +2402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2406,7 +2416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2438,7 +2448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2452,7 +2462,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2469,7 +2479,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2501,7 +2511,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2533,7 +2543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2547,7 +2557,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2582,7 +2592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -2596,7 +2606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2642,7 +2652,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>14</v>
       </c>
@@ -2654,7 +2664,7 @@
       </c>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>14</v>
       </c>
@@ -2666,7 +2676,7 @@
       </c>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2698,7 +2708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2730,7 +2740,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2747,7 +2757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2779,7 +2789,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -2793,7 +2803,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2807,7 +2817,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2839,7 +2849,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2871,7 +2881,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2885,7 +2895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2920,7 +2930,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2937,7 +2947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
@@ -2951,7 +2961,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2983,7 +2993,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3018,7 +3028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
@@ -3032,7 +3042,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3064,7 +3074,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
@@ -3078,7 +3088,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -3092,7 +3102,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3124,7 +3134,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3141,7 +3151,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3187,7 +3197,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3210,7 +3220,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>14</v>
       </c>
@@ -3224,7 +3234,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -3238,7 +3248,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3270,7 +3280,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3287,7 +3297,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3319,7 +3329,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14</v>
       </c>
@@ -3333,7 +3343,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>14</v>
       </c>
@@ -3345,7 +3355,7 @@
       </c>
       <c r="N55"/>
     </row>
-    <row r="56" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>14</v>
       </c>
@@ -3357,7 +3367,7 @@
       </c>
       <c r="N56"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3389,7 +3399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3421,7 +3431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>14</v>
       </c>
@@ -3433,7 +3443,7 @@
       </c>
       <c r="N59"/>
     </row>
-    <row r="60" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>14</v>
       </c>
@@ -3445,7 +3455,7 @@
       </c>
       <c r="N60"/>
     </row>
-    <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>3</v>
       </c>
@@ -3463,7 +3473,7 @@
       </c>
       <c r="N61"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3495,7 +3505,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>14</v>
       </c>
@@ -3509,7 +3519,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3544,7 +3554,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3576,7 +3586,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>14</v>
       </c>
@@ -3590,7 +3600,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3604,7 +3614,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3636,7 +3646,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3650,7 +3660,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3685,7 +3695,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14</v>
       </c>
@@ -3699,7 +3709,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
@@ -3713,7 +3723,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3736,7 +3746,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>14</v>
       </c>
@@ -3750,7 +3760,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3782,7 +3792,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14</v>
       </c>
@@ -3796,7 +3806,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3831,7 +3841,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14</v>
       </c>
@@ -3845,7 +3855,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3877,7 +3887,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3909,7 +3919,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
       </c>
@@ -3923,7 +3933,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3955,24 +3965,27 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>3</v>
-      </c>
-      <c r="H83" t="s">
+    <row r="83" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>7</v>
       </c>
-      <c r="I83" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3986,7 +3999,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -4018,7 +4031,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>14</v>
       </c>
@@ -4030,7 +4043,7 @@
       </c>
       <c r="N86"/>
     </row>
-    <row r="87" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>14</v>
       </c>
@@ -4042,7 +4055,7 @@
       </c>
       <c r="N87"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -4065,7 +4078,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4097,7 +4110,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -4114,7 +4127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5</v>
       </c>
@@ -4137,7 +4150,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
       </c>
@@ -4151,7 +4164,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5</v>
       </c>
@@ -4174,7 +4187,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5</v>
       </c>
@@ -4197,7 +4210,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
@@ -4211,7 +4224,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>14</v>
       </c>
@@ -4225,7 +4238,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5</v>
       </c>
@@ -4251,7 +4264,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14</v>
       </c>
@@ -4265,7 +4278,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>14</v>
       </c>
@@ -4279,7 +4292,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14</v>
       </c>
@@ -4293,7 +4306,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5</v>
       </c>
@@ -4316,7 +4329,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -4339,7 +4352,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -4356,7 +4369,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -4379,7 +4392,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14</v>
       </c>
@@ -4393,7 +4406,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>14</v>
       </c>
@@ -4407,7 +4420,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -4430,7 +4443,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>14</v>
       </c>
@@ -4444,7 +4457,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>14</v>
       </c>
@@ -4458,7 +4471,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>5</v>
       </c>
@@ -4485,7 +4498,7 @@
       </c>
       <c r="N110"/>
     </row>
-    <row r="111" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>3</v>
       </c>
@@ -4503,7 +4516,7 @@
       </c>
       <c r="N111"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -4526,7 +4539,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>14</v>
       </c>
@@ -4540,7 +4553,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>14</v>
       </c>
@@ -4554,7 +4567,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -4571,7 +4584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>14</v>
       </c>
@@ -4585,7 +4598,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>14</v>
       </c>
@@ -4599,7 +4612,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>14</v>
       </c>
@@ -4613,7 +4626,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>14</v>
       </c>
@@ -4627,7 +4640,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>14</v>
       </c>
@@ -4641,7 +4654,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>14</v>
       </c>
@@ -4655,7 +4668,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -4672,7 +4685,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>14</v>
       </c>
@@ -4686,7 +4699,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>14</v>
       </c>
@@ -4700,7 +4713,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>14</v>
       </c>
@@ -4714,7 +4727,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>14</v>
       </c>
@@ -4728,7 +4741,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>14</v>
       </c>
@@ -4742,7 +4755,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>14</v>
       </c>
@@ -4756,7 +4769,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>14</v>
       </c>
@@ -4770,7 +4783,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>14</v>
       </c>
@@ -4782,7 +4795,7 @@
       </c>
       <c r="N130"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>14</v>
       </c>
@@ -4796,7 +4809,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -4813,7 +4826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>14</v>
       </c>
@@ -4825,7 +4838,7 @@
       </c>
       <c r="N133"/>
     </row>
-    <row r="134" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>47</v>
       </c>
@@ -4843,7 +4856,7 @@
       </c>
       <c r="N134"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>14</v>
       </c>
@@ -4857,7 +4870,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>14</v>
       </c>
@@ -4871,7 +4884,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14</v>
       </c>
@@ -4885,7 +4898,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -4902,7 +4915,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4916,7 +4929,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>14</v>
       </c>
@@ -4930,7 +4943,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>14</v>
       </c>
@@ -4944,7 +4957,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>14</v>
       </c>
@@ -4958,7 +4971,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>14</v>
       </c>
@@ -4972,7 +4985,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="144" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>14</v>
       </c>
@@ -4984,7 +4997,7 @@
       </c>
       <c r="N144"/>
     </row>
-    <row r="145" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>47</v>
       </c>
@@ -5002,7 +5015,7 @@
       </c>
       <c r="N145"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>14</v>
       </c>
@@ -5016,7 +5029,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>3</v>
       </c>
@@ -5034,7 +5047,7 @@
       </c>
       <c r="N147"/>
     </row>
-    <row r="148" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>3</v>
       </c>
@@ -5052,7 +5065,7 @@
       </c>
       <c r="N148"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>14</v>
       </c>
@@ -5066,7 +5079,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>14</v>
       </c>
@@ -5080,7 +5093,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>3</v>
       </c>
@@ -5098,7 +5111,7 @@
       </c>
       <c r="N151"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>14</v>
       </c>
@@ -5112,7 +5125,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>14</v>
       </c>
@@ -5126,7 +5139,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>14</v>
       </c>
@@ -5140,7 +5153,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>14</v>
       </c>
@@ -5154,7 +5167,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>14</v>
       </c>
@@ -5168,7 +5181,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3</v>
       </c>
@@ -5185,7 +5198,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>14</v>
       </c>
@@ -5199,7 +5212,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>14</v>
       </c>
@@ -5213,7 +5226,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>14</v>
       </c>
@@ -5227,7 +5240,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5241,7 +5254,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>14</v>
       </c>
@@ -5255,7 +5268,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>14</v>
       </c>
@@ -5269,7 +5282,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>14</v>
       </c>
@@ -5283,7 +5296,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>14</v>
       </c>
@@ -5297,7 +5310,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3</v>
       </c>
@@ -5314,7 +5327,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>14</v>
       </c>
@@ -5328,7 +5341,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>14</v>
       </c>
@@ -5342,7 +5355,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>14</v>
       </c>
@@ -5356,7 +5369,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="170" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>14</v>
       </c>
@@ -5368,7 +5381,7 @@
       </c>
       <c r="N170"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>14</v>
       </c>
@@ -5382,7 +5395,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="172" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>14</v>
       </c>
@@ -5394,7 +5407,7 @@
       </c>
       <c r="N172"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>14</v>
       </c>
@@ -5408,7 +5421,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3</v>
       </c>
@@ -5425,7 +5438,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>14</v>
       </c>
@@ -5439,7 +5452,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>14</v>
       </c>
@@ -5453,7 +5466,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>14</v>
       </c>
@@ -5467,7 +5480,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>14</v>
       </c>
@@ -5481,7 +5494,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="179" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>14</v>
       </c>
@@ -5493,7 +5506,7 @@
       </c>
       <c r="N179"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
@@ -5510,7 +5523,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>14</v>
       </c>
@@ -5524,7 +5537,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>14</v>
       </c>
@@ -5538,7 +5551,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>14</v>
       </c>
@@ -5552,7 +5565,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>14</v>
       </c>
@@ -5566,7 +5579,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="185" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>3</v>
       </c>
@@ -5584,7 +5597,7 @@
       </c>
       <c r="N185"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>14</v>
       </c>
@@ -5598,7 +5611,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>14</v>
       </c>
@@ -5612,7 +5625,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
       </c>
@@ -5626,7 +5639,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>14</v>
       </c>
@@ -5640,7 +5653,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>14</v>
       </c>
@@ -5654,7 +5667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>14</v>
       </c>
@@ -5668,7 +5681,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>14</v>
       </c>
@@ -5682,7 +5695,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>14</v>
       </c>
@@ -5696,7 +5709,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>14</v>
       </c>
@@ -5710,7 +5723,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3</v>
       </c>
@@ -5727,7 +5740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>14</v>
       </c>
@@ -5741,7 +5754,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>14</v>
       </c>
@@ -5755,7 +5768,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>14</v>
       </c>
@@ -5769,7 +5782,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>14</v>
       </c>
@@ -5783,7 +5796,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>14</v>
       </c>
@@ -5797,7 +5810,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3</v>
       </c>
@@ -5814,7 +5827,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>14</v>
       </c>
@@ -5828,7 +5841,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>14</v>
       </c>
@@ -5842,7 +5855,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="204" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>14</v>
       </c>
@@ -5854,7 +5867,7 @@
       </c>
       <c r="N204"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>14</v>
       </c>
@@ -5868,7 +5881,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>14</v>
       </c>
@@ -5882,7 +5895,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3</v>
       </c>
@@ -5899,7 +5912,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>14</v>
       </c>
@@ -5913,7 +5926,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>14</v>
       </c>
@@ -5927,7 +5940,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>14</v>
       </c>
@@ -5941,7 +5954,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="211" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>14</v>
       </c>
@@ -5953,7 +5966,7 @@
       </c>
       <c r="N211"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>14</v>
       </c>
@@ -5967,7 +5980,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>14</v>
       </c>
@@ -5981,7 +5994,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>14</v>
       </c>
@@ -5995,7 +6008,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>14</v>
       </c>
@@ -6009,7 +6022,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>14</v>
       </c>
@@ -6023,7 +6036,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>14</v>
       </c>
@@ -6037,7 +6050,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>14</v>
       </c>
@@ -6051,7 +6064,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>14</v>
       </c>
@@ -6065,7 +6078,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>3</v>
       </c>
@@ -6082,7 +6095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>14</v>
       </c>
@@ -6096,7 +6109,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>14</v>
       </c>
@@ -6110,7 +6123,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>14</v>
       </c>
@@ -6124,7 +6137,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>14</v>
       </c>
@@ -6138,7 +6151,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>14</v>
       </c>
@@ -6152,7 +6165,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>3</v>
       </c>
@@ -6169,7 +6182,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>14</v>
       </c>
@@ -6183,7 +6196,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>14</v>
       </c>
@@ -6197,7 +6210,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>14</v>
       </c>
@@ -6211,7 +6224,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>14</v>
       </c>
@@ -6225,7 +6238,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>14</v>
       </c>
@@ -6239,7 +6252,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>14</v>
       </c>
@@ -6253,7 +6266,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>3</v>
       </c>
@@ -6270,7 +6283,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>14</v>
       </c>
@@ -6284,7 +6297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>14</v>
       </c>
@@ -6298,7 +6311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>14</v>
       </c>
@@ -6312,7 +6325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>14</v>
       </c>
@@ -6326,7 +6339,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>3</v>
       </c>
@@ -6343,7 +6356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14</v>
       </c>
@@ -6357,7 +6370,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>14</v>
       </c>
@@ -6371,7 +6384,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14</v>
       </c>
@@ -6385,7 +6398,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>14</v>
       </c>
@@ -6399,7 +6412,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14</v>
       </c>
@@ -6413,7 +6426,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14</v>
       </c>
@@ -6427,7 +6440,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14</v>
       </c>
@@ -6441,7 +6454,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="246" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>14</v>
       </c>
@@ -6453,7 +6466,7 @@
       </c>
       <c r="N246"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>3</v>
       </c>
@@ -6470,7 +6483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>14</v>
       </c>
@@ -6484,7 +6497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>14</v>
       </c>
@@ -6498,7 +6511,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>14</v>
       </c>
@@ -6512,7 +6525,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>14</v>
       </c>
@@ -6526,7 +6539,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>14</v>
       </c>
@@ -6540,7 +6553,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>3</v>
       </c>
@@ -6557,7 +6570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>14</v>
       </c>
@@ -6571,7 +6584,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>14</v>
       </c>
@@ -6585,7 +6598,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>14</v>
       </c>
@@ -6599,7 +6612,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="257" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>14</v>
       </c>
@@ -6611,7 +6624,7 @@
       </c>
       <c r="N257"/>
     </row>
-    <row r="258" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>14</v>
       </c>
@@ -6623,7 +6636,7 @@
       </c>
       <c r="N258"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>14</v>
       </c>
@@ -6637,7 +6650,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>3</v>
       </c>
@@ -6654,7 +6667,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>14</v>
       </c>
@@ -6668,7 +6681,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>14</v>
       </c>
@@ -6682,7 +6695,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="263" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>14</v>
       </c>
@@ -6694,7 +6707,7 @@
       </c>
       <c r="N263"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>14</v>
       </c>
@@ -6708,7 +6721,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>14</v>
       </c>
@@ -6722,7 +6735,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>14</v>
       </c>
@@ -6736,7 +6749,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>14</v>
       </c>
@@ -6750,7 +6763,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>14</v>
       </c>
@@ -6764,7 +6777,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>3</v>
       </c>
@@ -6781,7 +6794,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>14</v>
       </c>
@@ -6795,7 +6808,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>14</v>
       </c>
@@ -6809,7 +6822,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>14</v>
       </c>
@@ -6823,7 +6836,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>14</v>
       </c>
@@ -6837,7 +6850,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>3</v>
       </c>
@@ -6854,7 +6867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>14</v>
       </c>
@@ -6868,7 +6881,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>14</v>
       </c>
@@ -6882,7 +6895,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>14</v>
       </c>
@@ -6896,7 +6909,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3</v>
       </c>
@@ -6913,7 +6926,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>14</v>
       </c>
@@ -6927,7 +6940,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>14</v>
       </c>
@@ -6941,7 +6954,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>14</v>
       </c>
@@ -6955,7 +6968,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>14</v>
       </c>
@@ -6969,7 +6982,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>14</v>
       </c>
@@ -6983,7 +6996,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>28</v>
       </c>
@@ -7000,7 +7013,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>14</v>
       </c>
@@ -7014,7 +7027,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>14</v>
       </c>
@@ -7028,7 +7041,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>14</v>
       </c>
@@ -7042,7 +7055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>14</v>
       </c>
@@ -7056,7 +7069,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>28</v>
       </c>
@@ -7073,7 +7086,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>14</v>
       </c>
@@ -7087,7 +7100,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>14</v>
       </c>
@@ -7101,7 +7114,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>14</v>
       </c>
@@ -7115,7 +7128,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>3</v>
       </c>
@@ -7132,7 +7145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>14</v>
       </c>
@@ -7146,7 +7159,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>14</v>
       </c>
@@ -7160,7 +7173,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>14</v>
       </c>
@@ -7174,7 +7187,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>3</v>
       </c>
@@ -7191,7 +7204,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>14</v>
       </c>
@@ -7205,7 +7218,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>14</v>
       </c>
@@ -7219,7 +7232,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>14</v>
       </c>
@@ -7233,7 +7246,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>14</v>
       </c>
@@ -7247,7 +7260,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>14</v>
       </c>
@@ -7261,7 +7274,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>14</v>
       </c>
@@ -7275,7 +7288,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3</v>
       </c>
@@ -7292,7 +7305,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>5</v>
       </c>
@@ -7315,7 +7328,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>14</v>
       </c>
@@ -7329,7 +7342,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>14</v>
       </c>
@@ -7343,7 +7356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>5</v>
       </c>
@@ -7366,7 +7379,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>3</v>
       </c>
@@ -7383,7 +7396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>5</v>
       </c>
@@ -7406,7 +7419,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5</v>
       </c>
@@ -7429,7 +7442,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>14</v>
       </c>
@@ -7443,7 +7456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>14</v>
       </c>
@@ -7457,7 +7470,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>14</v>
       </c>
@@ -7471,7 +7484,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5</v>
       </c>
@@ -7494,7 +7507,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>14</v>
       </c>
@@ -7508,7 +7521,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>5</v>
       </c>
@@ -7534,7 +7547,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>5</v>
       </c>
@@ -7557,7 +7570,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>14</v>
       </c>
@@ -7571,7 +7584,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>5</v>
       </c>
@@ -7594,7 +7607,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3</v>
       </c>
@@ -7611,7 +7624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>5</v>
       </c>
@@ -7634,7 +7647,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>14</v>
       </c>
@@ -7648,7 +7661,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>5</v>
       </c>
@@ -7671,7 +7684,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5</v>
       </c>
@@ -7694,7 +7707,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>14</v>
       </c>
@@ -7708,7 +7721,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>14</v>
       </c>
@@ -7722,7 +7735,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1</v>
       </c>
@@ -7757,7 +7770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>14</v>
       </c>
@@ -7771,7 +7784,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>14</v>
       </c>
@@ -7785,7 +7798,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1</v>
       </c>
@@ -7817,7 +7830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>14</v>
       </c>
@@ -7831,7 +7844,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1</v>
       </c>
@@ -7866,7 +7879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1</v>
       </c>
@@ -7898,7 +7911,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>14</v>
       </c>
@@ -7912,7 +7925,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1</v>
       </c>
@@ -7944,7 +7957,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>14</v>
       </c>
@@ -7958,7 +7971,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1</v>
       </c>
@@ -7990,7 +8003,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>14</v>
       </c>
@@ -8004,7 +8017,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3</v>
       </c>
@@ -8021,7 +8034,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="341" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>1</v>
       </c>
@@ -8042,7 +8055,7 @@
       </c>
       <c r="N341"/>
     </row>
-    <row r="342" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>14</v>
       </c>
